--- a/WebDriverApplication/Data/Tools.xlsx
+++ b/WebDriverApplication/Data/Tools.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13068" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13692" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F24"/>
+  <oleSize ref="A3:M26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -761,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -1799,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
